--- a/April'21/06.04.2021/Daily Sales Info.xlsx
+++ b/April'21/06.04.2021/Daily Sales Info.xlsx
@@ -13175,8 +13175,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14935,7 +14935,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
@@ -16113,7 +16113,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -16485,7 +16485,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
@@ -17663,7 +17663,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -18035,7 +18035,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
@@ -19213,7 +19213,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -19585,7 +19585,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
@@ -20763,7 +20763,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -21135,7 +21135,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
@@ -22313,7 +22313,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -22685,7 +22685,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
@@ -23863,7 +23863,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -24235,7 +24235,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
@@ -25413,7 +25413,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -25785,7 +25785,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
@@ -26963,7 +26963,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -27335,7 +27335,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
@@ -28513,7 +28513,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -28885,7 +28885,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
@@ -30063,7 +30063,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -30341,7 +30341,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -31985,7 +31985,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
@@ -33163,7 +33163,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -33535,7 +33535,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
@@ -34713,7 +34713,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -35085,7 +35085,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
@@ -36263,7 +36263,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -36635,7 +36635,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
@@ -37813,7 +37813,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -38185,7 +38185,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
@@ -39363,7 +39363,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -39735,7 +39735,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
@@ -40913,7 +40913,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -41285,7 +41285,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
@@ -42463,7 +42463,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -42835,7 +42835,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
@@ -44013,7 +44013,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -44385,7 +44385,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
@@ -45563,7 +45563,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -45935,7 +45935,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
@@ -47113,7 +47113,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -47391,8 +47391,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49201,7 +49201,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
@@ -50379,7 +50379,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -50751,7 +50751,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
@@ -51929,7 +51929,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -53304,7 +53304,7 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>63760</v>
+        <v>63965</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
@@ -53340,15 +53340,15 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>65360</v>
+        <v>65565</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>71764</v>
+        <v>71969</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>1797.4</v>
+        <v>1803.0374999999999</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -53357,15 +53357,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>69066.600000000006</v>
+        <v>69265.962499999994</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>620.91999999999996</v>
+        <v>622.86749999999995</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-279.08000000000004</v>
+        <v>-277.13250000000005</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -54060,7 +54060,7 @@
       <c r="C28" s="66"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>1031199</v>
+        <v>1031404</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -54096,15 +54096,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>1116839</v>
+        <v>1117044</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>1195519</v>
+        <v>1195724</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>30713.072499999998</v>
+        <v>30718.709999999995</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -54116,15 +54116,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>1153720.9275</v>
+        <v>1153920.29</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>10609.970499999998</v>
+        <v>10611.917999999998</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-475.02950000000044</v>
+        <v>-473.08200000000045</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -54135,7 +54135,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -54410,7 +54410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56288,8 +56288,8 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58123,7 +58123,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -58940,7 +58940,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="29">
-        <v>16449</v>
+        <v>16654</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="30"/>
@@ -58954,15 +58954,15 @@
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>16449</v>
+        <v>16654</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>19123</v>
+        <v>19328</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>452.34750000000003</v>
+        <v>457.98500000000001</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -58970,15 +58970,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>18170.6525</v>
+        <v>18370.014999999999</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>156.2655</v>
+        <v>158.21299999999999</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>-343.73450000000003</v>
+        <v>-341.78700000000003</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -59451,7 +59451,7 @@
       <c r="C28" s="66"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>166501</v>
+        <v>166706</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
@@ -59487,15 +59487,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>181431</v>
+        <v>181636</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>189336</v>
+        <v>189541</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>4989.3524999999991</v>
+        <v>4994.99</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -59507,15 +59507,15 @@
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>182038.64749999993</v>
+        <v>182238.00999999995</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1723.5945000000002</v>
+        <v>1725.5420000000001</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-584.40550000000019</v>
+        <v>-582.4580000000002</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -59526,7 +59526,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -59898,7 +59898,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
@@ -61076,7 +61076,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -61448,7 +61448,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
@@ -62626,7 +62626,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
@@ -62998,7 +62998,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
@@ -64176,7 +64176,7 @@
       <c r="C29" s="69"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>505508</v>
+        <v>505303</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
